--- a/Ejercicio 1/Resultados.xlsx
+++ b/Ejercicio 1/Resultados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Desktop\Practica2TSI\Ejercicio 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fl156\Desktop\Practica2TSI\Ejercicio 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C37CAB68-8509-42F4-9D60-C172C1A9235A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19436E0C-E7E7-4543-B823-D8A8FE222620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9885" yWindow="3330" windowWidth="14400" windowHeight="7725" xr2:uid="{F7D8D92C-E922-4110-B83F-EB53B4C76AA3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F7D8D92C-E922-4110-B83F-EB53B4C76AA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -469,23 +469,23 @@
   <dimension ref="B1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -513,7 +513,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -527,21 +527,21 @@
         <v>3.0640000000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3">
-        <v>302088</v>
+      <c r="D5">
+        <v>150824</v>
       </c>
       <c r="E5" s="2">
         <v>24.859000000000002</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -551,7 +551,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -559,7 +559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -573,35 +573,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>10</v>
       </c>
@@ -609,7 +609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>1</v>
       </c>
@@ -623,7 +623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
@@ -637,7 +637,7 @@
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
@@ -651,7 +651,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
@@ -665,7 +665,7 @@
         <v>0.28799999999999998</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>8</v>
       </c>

--- a/Ejercicio 1/Resultados.xlsx
+++ b/Ejercicio 1/Resultados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fl156\Desktop\Practica2TSI\Ejercicio 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Desktop\Practica2TSI\Ejercicio 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19436E0C-E7E7-4543-B823-D8A8FE222620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAFAEDA-4041-42B2-A506-624F1B092039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F7D8D92C-E922-4110-B83F-EB53B4C76AA3}"/>
+    <workbookView xWindow="28680" yWindow="1830" windowWidth="19440" windowHeight="15000" xr2:uid="{F7D8D92C-E922-4110-B83F-EB53B4C76AA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>Apartado a.</t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>{0,2,1,0,2,1,0,2} (8)</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>{43,0,0,0,0,0,1,0} (44)</t>
+  </si>
+  <si>
+    <t>{35,0,0,0,0,0,0,1} (36)</t>
+  </si>
+  <si>
+    <t>{99,0,0,0,0,0,0,2} (101)</t>
   </si>
 </sst>
 </file>
@@ -469,23 +481,23 @@
   <dimension ref="B1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="36.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -499,7 +511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -513,7 +525,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -527,7 +539,7 @@
         <v>3.0640000000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -541,17 +553,21 @@
         <v>24.859000000000002</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -559,7 +575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -573,35 +589,63 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>284</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.36699999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>162</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.35299999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>4366</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.94799999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>10</v>
       </c>
@@ -609,7 +653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>1</v>
       </c>
@@ -623,7 +667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
@@ -637,7 +681,7 @@
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
@@ -645,13 +689,13 @@
         <v>19</v>
       </c>
       <c r="D20" s="3">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
@@ -659,24 +703,24 @@
         <v>20</v>
       </c>
       <c r="D21" s="3">
-        <v>231</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2">
-        <v>0.28799999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+        <v>0.29099999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="3">
-        <v>492</v>
+      <c r="D22">
+        <v>94</v>
       </c>
       <c r="E22" s="2">
-        <v>0.28399999999999997</v>
+        <v>0.33900000000000002</v>
       </c>
     </row>
   </sheetData>
